--- a/biology/Zoologie/Anthonomus/Anthonomus.xlsx
+++ b/biology/Zoologie/Anthonomus/Anthonomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthonomus est un genre d'insectes de l'ordre des coléoptères[1] et de la famille des Curculionidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthonomus est un genre d'insectes de l'ordre des coléoptères et de la famille des Curculionidae.
 Ce genre comprend plusieurs ravageurs importants des plantes cultivées, tels que le Anthonomus grandis, le charançon du coton, Anthonomus pomorum, l'anthonome du pommier, Anthonomus rubi, l'anthonome du fraisier, et Anthonomus eugenii, le charançon du piment, ainsi que des auxiliaires prometteurs en lutte biologique, tels que Anthonomus santacruzi.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste des espèces (110)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anthonomus adnexus Burke, 1988.
